--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1756A7-114F-40D2-8F1F-6F884ED0CD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F39FC3-9340-4563-8244-80BD2CCE1BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PMT" sheetId="27" r:id="rId1"/>
-    <sheet name="INT_ACC" sheetId="28" r:id="rId2"/>
-    <sheet name="PMT_RP" sheetId="33" r:id="rId3"/>
+    <sheet name="TRANX" sheetId="27" r:id="rId1"/>
+    <sheet name="EOD" sheetId="28" r:id="rId2"/>
+    <sheet name="REPLAY" sheetId="33" r:id="rId3"/>
     <sheet name="EXPECTED" sheetId="38" r:id="rId4"/>
     <sheet name="Scenario" sheetId="30" r:id="rId5"/>
     <sheet name="CALCULATION" sheetId="36" r:id="rId6"/>
@@ -181,12 +181,6 @@
     <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
   </si>
   <si>
-    <t>BALANCES_ENDINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
-  </si>
-  <si>
     <t>TransactionName</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>ARWK-RAAM</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>44645</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>28</v>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,10 +2179,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2206,8 +2206,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,13 +2239,13 @@
         <v>40</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="53" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="131" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -2352,13 +2352,13 @@
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>20</v>
@@ -2373,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>44614</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="75">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>44635</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>44645</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="59">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="59">
         <v>1</v>
@@ -2492,7 +2492,7 @@
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="92" t="s">
         <v>20</v>
@@ -2507,7 +2507,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>44635</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>44671</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="59">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>44614</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="59">
         <v>1</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="92" t="s">
         <v>20</v>
@@ -2605,10 +2605,10 @@
         <v>42</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>44620</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="75">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>44681</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>44712</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="59">
         <v>1</v>
@@ -2706,7 +2706,7 @@
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="131" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="132"/>
       <c r="C29" s="132"/>
@@ -2727,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="105" t="s">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="45">
         <v>100</v>
@@ -2767,7 +2767,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="45">
         <v>100000</v>
@@ -2787,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="45">
         <v>777.77779999999996</v>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="45">
         <v>7000</v>
@@ -2827,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="45">
         <v>-1266.6667</v>
@@ -2847,7 +2847,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" s="45">
         <v>-233.33330000000001</v>
@@ -2867,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="45">
         <v>1500</v>
@@ -2887,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="45">
         <v>873.6203999999999</v>
@@ -2907,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="45">
         <v>-1048.2221999999999</v>
@@ -2927,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" s="45">
         <v>-951.77779999999996</v>
@@ -2947,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" s="45">
         <v>1500</v>
@@ -2967,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E44" s="45">
         <v>886.81399999999996</v>
@@ -2987,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45" s="45">
         <v>-1.2343999999999999</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E46" s="45">
         <v>-404</v>
@@ -3027,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="45">
         <v>400</v>
@@ -3047,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="45">
         <v>907.70489999999995</v>
@@ -3159,7 +3159,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>30</v>
@@ -3455,7 +3455,7 @@
         <v>44645</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>28</v>
@@ -3998,7 +3998,7 @@
         <v>44645</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>28</v>
@@ -4263,7 +4263,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>28</v>
@@ -4287,7 +4287,7 @@
         <v>44712</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>2</v>
@@ -4353,7 +4353,7 @@
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -4371,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="23">
-        <f>INT_ACC!E2/100</f>
+        <f>EOD!E2/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4380,13 +4380,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="24">
-        <f>INT_ACC!C2</f>
+        <f>EOD!C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="24"/>
     </row>
@@ -4395,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="str">
-        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
+        <f>IF(EOD!A2="","",EOD!A2)</f>
         <v/>
       </c>
       <c r="D5" s="38"/>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="25" t="str">
-        <f>IF(MIN(PMT_RP!B2:B42)=0,"",MIN(PMT_RP!B2:B42))</f>
+        <f>IF(MIN(REPLAY!B2:B42)=0,"",MIN(REPLAY!B2:B42))</f>
         <v/>
       </c>
       <c r="D6" s="38"/>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="40">
-        <f>IF(B6&lt;&gt;"",COUNT(PMT_RP!A2:A29),IF(PMT!A2&lt;&gt;"",COUNT(PMT!B2:B29),0))</f>
+        <f>IF(B6&lt;&gt;"",COUNT(REPLAY!A2:A29),IF(TRANX!A2&lt;&gt;"",COUNT(TRANX!B2:B29),0))</f>
         <v>0</v>
       </c>
       <c r="C7" s="38"/>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="40">
-        <f>INT_ACC!D2</f>
+        <f>EOD!D2</f>
         <v>0</v>
       </c>
       <c r="C8" s="38"/>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -4482,25 +4482,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>56</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>11</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="28" t="str">
-        <f>IFERROR(IF(B12="","",VLOOKUP($B$6,PMT_RP!$B$2:$H$3,6,FALSE)),"")</f>
+        <f>IFERROR(IF(B12="","",VLOOKUP($B$6,REPLAY!$B$2:$H$3,6,FALSE)),"")</f>
         <v/>
       </c>
       <c r="G12" s="31">
@@ -4553,15 +4553,15 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="str">
-        <f>IFERROR(IF(B12="","",IF(B5="","",VLOOKUP($B$6,PMT_RP!$B$2:$H$3,7,FALSE)+G12)),"")</f>
+        <f>IFERROR(IF(B12="","",IF(B5="","",VLOOKUP($B$6,REPLAY!$B$2:$H$3,7,FALSE)+G12)),"")</f>
         <v/>
       </c>
       <c r="I12" s="6">
-        <f ca="1">IF(B12="","",SUMIF(PMT_RP!$B$2:$F12,B12,PMT_RP!$F$2:$F$13))</f>
+        <f ca="1">IF(B12="","",SUMIF(REPLAY!$B$2:$F12,B12,REPLAY!$F$2:$F$13))</f>
         <v>0</v>
       </c>
       <c r="J12" s="28">
-        <f ca="1">IF(B12="","",SUMIF(PMT_RP!$B$2:$E$13,B12,PMT_RP!$E$2:$E$13))</f>
+        <f ca="1">IF(B12="","",SUMIF(REPLAY!$B$2:$E$13,B12,REPLAY!$E$2:$E$13))</f>
         <v>0</v>
       </c>
       <c r="K12" s="28">
@@ -17896,7 +17896,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="27" t="str">
-        <f>IF(A13&gt;$B$7,"",IF(PMT_RP!B2=$B$5,EOMONTH($B$5,-1),PMT_RP!B2))</f>
+        <f>IF(A13&gt;$B$7,"",IF(REPLAY!B2=$B$5,EOMONTH($B$5,-1),REPLAY!B2))</f>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
@@ -17912,7 +17912,7 @@
         <v/>
       </c>
       <c r="F13" s="28" t="str">
-        <f>IFERROR(IF(B13="","",VLOOKUP(B13,PMT_RP!$B$2:$H$3,6,FALSE)),"")</f>
+        <f>IFERROR(IF(B13="","",VLOOKUP(B13,REPLAY!$B$2:$H$3,6,FALSE)),"")</f>
         <v/>
       </c>
       <c r="G13" s="31">
@@ -17920,15 +17920,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="str">
-        <f>IFERROR(IF(B13="","",IF(B6="","",VLOOKUP(B13,PMT_RP!$B$2:$H$3,7,FALSE)+G13)),"")</f>
+        <f>IFERROR(IF(B13="","",IF(B6="","",VLOOKUP(B13,REPLAY!$B$2:$H$3,7,FALSE)+G13)),"")</f>
         <v/>
       </c>
       <c r="I13" s="6" t="str">
-        <f>IF(B13="","",SUMIF(PMT_RP!$B$2:$F13,B13,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B13="","",SUMIF(REPLAY!$B$2:$F13,B13,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J13" s="28" t="str">
-        <f>IF(B13="","",SUMIF(PMT_RP!$B$2:$E$13,B13,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B13="","",SUMIF(REPLAY!$B$2:$E$13,B13,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K13" s="28" t="str">
@@ -17961,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="27" t="str">
-        <f>IF(A14&gt;$B$7,"",IF(PMT_RP!B3=$B$5,EOMONTH($B$5,-1),PMT_RP!B3))</f>
+        <f>IF(A14&gt;$B$7,"",IF(REPLAY!B3=$B$5,EOMONTH($B$5,-1),REPLAY!B3))</f>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
@@ -17989,11 +17989,11 @@
         <v/>
       </c>
       <c r="I14" s="6" t="str">
-        <f>IF(B14="","",SUMIF(PMT_RP!$B$2:$EF14,B14,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B14="","",SUMIF(REPLAY!$B$2:$EF14,B14,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J14" s="28" t="str">
-        <f>IF(B14="","",SUMIF(PMT_RP!$B$2:$E$13,B14,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B14="","",SUMIF(REPLAY!$B$2:$E$13,B14,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K14" s="28" t="str">
@@ -18026,7 +18026,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="str">
-        <f>IF(A15&gt;$B$7,"",IF(PMT_RP!B4=$B$5,EOMONTH($B$5,-1),PMT_RP!B4))</f>
+        <f>IF(A15&gt;$B$7,"",IF(REPLAY!B4=$B$5,EOMONTH($B$5,-1),REPLAY!B4))</f>
         <v/>
       </c>
       <c r="C15" s="1" t="str">
@@ -18054,11 +18054,11 @@
         <v/>
       </c>
       <c r="I15" s="6" t="str">
-        <f>IF(B15="","",SUMIF(PMT_RP!$B$2:$EF15,B15,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B15="","",SUMIF(REPLAY!$B$2:$EF15,B15,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J15" s="28" t="str">
-        <f>IF(B15="","",SUMIF(PMT_RP!$B$2:$E$13,B15,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B15="","",SUMIF(REPLAY!$B$2:$E$13,B15,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K15" s="28" t="str">
@@ -18091,7 +18091,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="27" t="str">
-        <f>IF(A16&gt;$B$7,"",IF(PMT_RP!B5=$B$5,EOMONTH($B$5,-1),PMT_RP!B5))</f>
+        <f>IF(A16&gt;$B$7,"",IF(REPLAY!B5=$B$5,EOMONTH($B$5,-1),REPLAY!B5))</f>
         <v/>
       </c>
       <c r="C16" s="1" t="str">
@@ -18119,11 +18119,11 @@
         <v/>
       </c>
       <c r="I16" s="6" t="str">
-        <f>IF(B16="","",SUMIF(PMT_RP!$B$2:$EF16,B16,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B16="","",SUMIF(REPLAY!$B$2:$EF16,B16,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J16" s="28" t="str">
-        <f>IF(B16="","",SUMIF(PMT_RP!$B$2:$E$13,B16,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B16="","",SUMIF(REPLAY!$B$2:$E$13,B16,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K16" s="28" t="str">
@@ -18156,7 +18156,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="27" t="str">
-        <f>IF(A17&gt;$B$7,"",IF(PMT_RP!B6=$B$5,EOMONTH($B$5,-1),PMT_RP!B6))</f>
+        <f>IF(A17&gt;$B$7,"",IF(REPLAY!B6=$B$5,EOMONTH($B$5,-1),REPLAY!B6))</f>
         <v/>
       </c>
       <c r="C17" s="1" t="str">
@@ -18184,11 +18184,11 @@
         <v/>
       </c>
       <c r="I17" s="6" t="str">
-        <f>IF(B17="","",SUMIF(PMT_RP!$B$2:$EF17,B17,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B17="","",SUMIF(REPLAY!$B$2:$EF17,B17,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J17" s="28" t="str">
-        <f>IF(B17="","",SUMIF(PMT_RP!$B$2:$E$13,B17,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B17="","",SUMIF(REPLAY!$B$2:$E$13,B17,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K17" s="28" t="str">
@@ -18221,7 +18221,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="27" t="str">
-        <f>IF(A18&gt;$B$7,"",IF(PMT_RP!B7=$B$5,EOMONTH($B$5,-1),PMT_RP!B7))</f>
+        <f>IF(A18&gt;$B$7,"",IF(REPLAY!B7=$B$5,EOMONTH($B$5,-1),REPLAY!B7))</f>
         <v/>
       </c>
       <c r="C18" s="1" t="str">
@@ -18249,11 +18249,11 @@
         <v/>
       </c>
       <c r="I18" s="6" t="str">
-        <f>IF(B18="","",SUMIF(PMT_RP!$B$2:$EF18,B18,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B18="","",SUMIF(REPLAY!$B$2:$EF18,B18,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J18" s="28" t="str">
-        <f>IF(B18="","",SUMIF(PMT_RP!$B$2:$E$13,B18,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B18="","",SUMIF(REPLAY!$B$2:$E$13,B18,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K18" s="28" t="str">
@@ -18286,7 +18286,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="27" t="str">
-        <f>IF(A19&gt;$B$7,"",IF(PMT_RP!B8=$B$5,EOMONTH($B$5,-1),PMT_RP!B8))</f>
+        <f>IF(A19&gt;$B$7,"",IF(REPLAY!B8=$B$5,EOMONTH($B$5,-1),REPLAY!B8))</f>
         <v/>
       </c>
       <c r="C19" s="1" t="str">
@@ -18314,11 +18314,11 @@
         <v/>
       </c>
       <c r="I19" s="6" t="str">
-        <f>IF(B19="","",SUMIF(PMT_RP!$B$2:$EF19,B19,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B19="","",SUMIF(REPLAY!$B$2:$EF19,B19,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J19" s="28" t="str">
-        <f>IF(B19="","",SUMIF(PMT_RP!$B$2:$E$13,B19,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B19="","",SUMIF(REPLAY!$B$2:$E$13,B19,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K19" s="28" t="str">
@@ -18351,7 +18351,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="str">
-        <f>IF(A20&gt;$B$7,"",IF(PMT_RP!B9=$B$5,EOMONTH($B$5,-1),PMT_RP!B9))</f>
+        <f>IF(A20&gt;$B$7,"",IF(REPLAY!B9=$B$5,EOMONTH($B$5,-1),REPLAY!B9))</f>
         <v/>
       </c>
       <c r="C20" s="1" t="str">
@@ -18379,11 +18379,11 @@
         <v/>
       </c>
       <c r="I20" s="6" t="str">
-        <f>IF(B20="","",SUMIF(PMT_RP!$B$2:$EF20,B20,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B20="","",SUMIF(REPLAY!$B$2:$EF20,B20,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J20" s="28" t="str">
-        <f>IF(B20="","",SUMIF(PMT_RP!$B$2:$E$13,B20,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B20="","",SUMIF(REPLAY!$B$2:$E$13,B20,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K20" s="28" t="str">
@@ -18416,7 +18416,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="str">
-        <f>IF(A21&gt;$B$7,"",IF(PMT_RP!B10=$B$5,EOMONTH($B$5,-1),PMT_RP!B10))</f>
+        <f>IF(A21&gt;$B$7,"",IF(REPLAY!B10=$B$5,EOMONTH($B$5,-1),REPLAY!B10))</f>
         <v/>
       </c>
       <c r="C21" s="1" t="str">
@@ -18444,11 +18444,11 @@
         <v/>
       </c>
       <c r="I21" s="6" t="str">
-        <f>IF(B21="","",SUMIF(PMT_RP!$B$2:$EF21,B21,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B21="","",SUMIF(REPLAY!$B$2:$EF21,B21,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J21" s="28" t="str">
-        <f>IF(B21="","",SUMIF(PMT_RP!$B$2:$E$13,B21,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B21="","",SUMIF(REPLAY!$B$2:$E$13,B21,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K21" s="28" t="str">
@@ -18481,7 +18481,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="27" t="str">
-        <f>IF(A22&gt;$B$7,"",IF(PMT_RP!B11=$B$5,EOMONTH($B$5,-1),PMT_RP!B11))</f>
+        <f>IF(A22&gt;$B$7,"",IF(REPLAY!B11=$B$5,EOMONTH($B$5,-1),REPLAY!B11))</f>
         <v/>
       </c>
       <c r="C22" s="1" t="str">
@@ -18509,11 +18509,11 @@
         <v/>
       </c>
       <c r="I22" s="6" t="str">
-        <f>IF(B22="","",SUMIF(PMT_RP!$B$2:$EF22,B22,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B22="","",SUMIF(REPLAY!$B$2:$EF22,B22,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J22" s="28" t="str">
-        <f>IF(B22="","",SUMIF(PMT_RP!$B$2:$E$13,B22,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B22="","",SUMIF(REPLAY!$B$2:$E$13,B22,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K22" s="28" t="str">
@@ -18546,7 +18546,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="str">
-        <f>IF(A23&gt;$B$7,"",IF(PMT_RP!B12=$B$5,EOMONTH($B$5,-1),PMT_RP!B12))</f>
+        <f>IF(A23&gt;$B$7,"",IF(REPLAY!B12=$B$5,EOMONTH($B$5,-1),REPLAY!B12))</f>
         <v/>
       </c>
       <c r="C23" s="1" t="str">
@@ -18574,11 +18574,11 @@
         <v/>
       </c>
       <c r="I23" s="6" t="str">
-        <f>IF(B23="","",SUMIF(PMT_RP!$B$2:$EF23,B23,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B23="","",SUMIF(REPLAY!$B$2:$EF23,B23,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J23" s="28" t="str">
-        <f>IF(B23="","",SUMIF(PMT_RP!$B$2:$E$13,B23,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B23="","",SUMIF(REPLAY!$B$2:$E$13,B23,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K23" s="28" t="str">
@@ -18611,7 +18611,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="27" t="str">
-        <f>IF(A24&gt;$B$7,"",IF(PMT_RP!B13=$B$5,EOMONTH($B$5,-1),PMT_RP!B13))</f>
+        <f>IF(A24&gt;$B$7,"",IF(REPLAY!B13=$B$5,EOMONTH($B$5,-1),REPLAY!B13))</f>
         <v/>
       </c>
       <c r="C24" s="1" t="str">
@@ -18639,11 +18639,11 @@
         <v/>
       </c>
       <c r="I24" s="6" t="str">
-        <f>IF(B24="","",SUMIF(PMT_RP!$B$2:$EF24,B24,PMT_RP!$F$2:$F$13))</f>
+        <f>IF(B24="","",SUMIF(REPLAY!$B$2:$EF24,B24,REPLAY!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="J24" s="28" t="str">
-        <f>IF(B24="","",SUMIF(PMT_RP!$B$2:$E$13,B24,PMT_RP!$E$2:$E$13))</f>
+        <f>IF(B24="","",SUMIF(REPLAY!$B$2:$E$13,B24,REPLAY!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="K24" s="28" t="str">
@@ -18720,10 +18720,10 @@
         <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -18739,7 +18739,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="54">
-        <f>IF(M25=0,0,INT_ACC!F2)</f>
+        <f>IF(M25=0,0,EOD!F2)</f>
         <v>0</v>
       </c>
       <c r="C27" s="7">
@@ -18764,7 +18764,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="54">
-        <f>IF(O25=0,0,INT_ACC!G2)</f>
+        <f>IF(O25=0,0,EOD!G2)</f>
         <v>0</v>
       </c>
       <c r="C28" s="73">
@@ -18803,7 +18803,7 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="137" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="138"/>
       <c r="C31" s="138"/>
@@ -18829,13 +18829,13 @@
         <v>20</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="64" t="s">
         <v>54</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>56</v>
       </c>
       <c r="F32" s="64" t="s">
         <v>13</v>
@@ -18844,7 +18844,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I32" s="64" t="s">
         <v>11</v>
@@ -18856,10 +18856,10 @@
         <v>16</v>
       </c>
       <c r="L32" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M32" s="64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N32" s="71" t="s">
         <v>18</v>
@@ -18868,7 +18868,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="64" t="s">
         <v>17</v>
@@ -18877,16 +18877,16 @@
         <v>41</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="27" t="str">
-        <f>IFERROR(IF(A33=0,EOMONTH($B$5,-1)+1,IF(A33&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A33,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A33=0,EOMONTH($B$5,-1)+1,IF(A33&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A33,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C33" s="1" t="str">
@@ -18910,19 +18910,19 @@
         <v/>
       </c>
       <c r="F33" s="28" t="str">
-        <f>IFERROR(IF(B33="","",VLOOKUP(B5,INT_ACC!$B$2:$G$15,5,FALSE)),"")</f>
+        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,5,FALSE)),"")</f>
         <v/>
       </c>
       <c r="G33" s="28" t="str">
-        <f>IFERROR(IF(B33="","",VLOOKUP(B5,INT_ACC!$B$2:$G$15,6,FALSE)),"")</f>
+        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,6,FALSE)),"")</f>
         <v/>
       </c>
       <c r="H33" s="6" t="str">
-        <f>IF(B33="","",SUMIF(PMT!$B$2:$F$13,B33,PMT!$F$2:$F$13))</f>
+        <f>IF(B33="","",SUMIF(TRANX!$B$2:$F$13,B33,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I33" s="28" t="str">
-        <f>IF(B33="","",SUMIF(PMT!$B$2:$E$13,B33,PMT!$E$2:$E$13))</f>
+        <f>IF(B33="","",SUMIF(TRANX!$B$2:$E$13,B33,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J33" s="28" t="str">
@@ -18974,7 +18974,7 @@
         <v/>
       </c>
       <c r="W33" s="1" t="str">
-        <f>IF(PMT!B2="","",IF(PMT!B2&gt;EOMONTH($B$5,-1)+1,PMT!B2,""))</f>
+        <f>IF(TRANX!B2="","",IF(TRANX!B2&gt;EOMONTH($B$5,-1)+1,TRANX!B2,""))</f>
         <v/>
       </c>
     </row>
@@ -18983,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="27" t="str">
-        <f>IFERROR(IF(A34=0,EOMONTH($B$5,-1)+1,IF(A34&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A34,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A34=0,EOMONTH($B$5,-1)+1,IF(A34&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A34,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C34" s="1" t="str">
@@ -19007,11 +19007,11 @@
         <v/>
       </c>
       <c r="H34" s="6" t="str">
-        <f>IF(B34="","",SUMIF(PMT!$B$2:$F$13,B34,PMT!$F$2:$F$13))</f>
+        <f>IF(B34="","",SUMIF(TRANX!$B$2:$F$13,B34,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I34" s="28" t="str">
-        <f>IF(B34="","",SUMIF(PMT!$B$2:$E$13,B34,PMT!$E$2:$E$13))</f>
+        <f>IF(B34="","",SUMIF(TRANX!$B$2:$E$13,B34,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J34" s="28" t="str">
@@ -19063,7 +19063,7 @@
         <v/>
       </c>
       <c r="W34" s="1" t="str">
-        <f>IF(PMT!B3="","",IF(PMT!B3&gt;EOMONTH($B$5,-1)+1,PMT!B3,""))</f>
+        <f>IF(TRANX!B3="","",IF(TRANX!B3&gt;EOMONTH($B$5,-1)+1,TRANX!B3,""))</f>
         <v/>
       </c>
     </row>
@@ -19072,7 +19072,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="27" t="str">
-        <f>IFERROR(IF(A35=0,EOMONTH($B$5,-1)+1,IF(A35&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A35,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A35=0,EOMONTH($B$5,-1)+1,IF(A35&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A35,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C35" s="1" t="str">
@@ -19096,11 +19096,11 @@
         <v/>
       </c>
       <c r="H35" s="6" t="str">
-        <f>IF(B35="","",SUMIF(PMT!$B$2:$F$13,B35,PMT!$F$2:$F$13))</f>
+        <f>IF(B35="","",SUMIF(TRANX!$B$2:$F$13,B35,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I35" s="28" t="str">
-        <f>IF(B35="","",SUMIF(PMT!$B$2:$E$13,B35,PMT!$E$2:$E$13))</f>
+        <f>IF(B35="","",SUMIF(TRANX!$B$2:$E$13,B35,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J35" s="28" t="str">
@@ -19152,7 +19152,7 @@
         <v/>
       </c>
       <c r="W35" s="1" t="str">
-        <f>IF(PMT!B4="","",IF(PMT!B4&gt;EOMONTH($B$5,-1)+1,PMT!B4,""))</f>
+        <f>IF(TRANX!B4="","",IF(TRANX!B4&gt;EOMONTH($B$5,-1)+1,TRANX!B4,""))</f>
         <v/>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="27" t="str">
-        <f>IFERROR(IF(A36=0,EOMONTH($B$5,-1)+1,IF(A36&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A36,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A36=0,EOMONTH($B$5,-1)+1,IF(A36&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A36,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C36" s="1" t="str">
@@ -19185,11 +19185,11 @@
         <v/>
       </c>
       <c r="H36" s="6" t="str">
-        <f>IF(B36="","",SUMIF(PMT!$B$2:$F$13,B36,PMT!$F$2:$F$13))</f>
+        <f>IF(B36="","",SUMIF(TRANX!$B$2:$F$13,B36,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I36" s="28" t="str">
-        <f>IF(B36="","",SUMIF(PMT!$B$2:$E$13,B36,PMT!$E$2:$E$13))</f>
+        <f>IF(B36="","",SUMIF(TRANX!$B$2:$E$13,B36,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J36" s="28" t="str">
@@ -19238,7 +19238,7 @@
         <v/>
       </c>
       <c r="W36" s="1" t="str">
-        <f>IF(PMT!B5="","",IF(PMT!B5&gt;EOMONTH($B$5,-1)+1,PMT!B5,""))</f>
+        <f>IF(TRANX!B5="","",IF(TRANX!B5&gt;EOMONTH($B$5,-1)+1,TRANX!B5,""))</f>
         <v/>
       </c>
     </row>
@@ -19247,7 +19247,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="27" t="str">
-        <f>IFERROR(IF(A37=0,EOMONTH($B$5,-1)+1,IF(A37&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A37,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A37=0,EOMONTH($B$5,-1)+1,IF(A37&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A37,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C37" s="1" t="str">
@@ -19271,11 +19271,11 @@
         <v/>
       </c>
       <c r="H37" s="6" t="str">
-        <f>IF(B37="","",SUMIF(PMT!$B$2:$F$13,B37,PMT!$F$2:$F$13))</f>
+        <f>IF(B37="","",SUMIF(TRANX!$B$2:$F$13,B37,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I37" s="28" t="str">
-        <f>IF(B37="","",SUMIF(PMT!$B$2:$E$13,B37,PMT!$E$2:$E$13))</f>
+        <f>IF(B37="","",SUMIF(TRANX!$B$2:$E$13,B37,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J37" s="28" t="str">
@@ -19324,7 +19324,7 @@
         <v/>
       </c>
       <c r="W37" s="1" t="str">
-        <f>IF(PMT!B6="","",IF(PMT!B6&gt;EOMONTH($B$5,-1)+1,PMT!B6,""))</f>
+        <f>IF(TRANX!B6="","",IF(TRANX!B6&gt;EOMONTH($B$5,-1)+1,TRANX!B6,""))</f>
         <v/>
       </c>
     </row>
@@ -19333,7 +19333,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="27" t="str">
-        <f>IFERROR(IF(A38=0,EOMONTH($B$5,-1)+1,IF(A38&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A38,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A38=0,EOMONTH($B$5,-1)+1,IF(A38&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A38,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C38" s="1" t="str">
@@ -19357,11 +19357,11 @@
         <v/>
       </c>
       <c r="H38" s="6" t="str">
-        <f>IF(B38="","",SUMIF(PMT!$B$2:$F$13,B38,PMT!$F$2:$F$13))</f>
+        <f>IF(B38="","",SUMIF(TRANX!$B$2:$F$13,B38,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I38" s="28" t="str">
-        <f>IF(B38="","",SUMIF(PMT!$B$2:$E$13,B38,PMT!$E$2:$E$13))</f>
+        <f>IF(B38="","",SUMIF(TRANX!$B$2:$E$13,B38,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J38" s="28" t="str">
@@ -19410,7 +19410,7 @@
         <v/>
       </c>
       <c r="W38" s="1" t="str">
-        <f>IF(PMT!B7="","",IF(PMT!B7&gt;EOMONTH($B$5,-1)+1,PMT!B7,""))</f>
+        <f>IF(TRANX!B7="","",IF(TRANX!B7&gt;EOMONTH($B$5,-1)+1,TRANX!B7,""))</f>
         <v/>
       </c>
     </row>
@@ -19419,7 +19419,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="27" t="str">
-        <f>IFERROR(IF(A39=0,EOMONTH($B$5,-1)+1,IF(A39&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A39,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A39=0,EOMONTH($B$5,-1)+1,IF(A39&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A39,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C39" s="1" t="str">
@@ -19443,11 +19443,11 @@
         <v/>
       </c>
       <c r="H39" s="6" t="str">
-        <f>IF(B39="","",SUMIF(PMT!$B$2:$F$13,B39,PMT!$F$2:$F$13))</f>
+        <f>IF(B39="","",SUMIF(TRANX!$B$2:$F$13,B39,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I39" s="28" t="str">
-        <f>IF(B39="","",SUMIF(PMT!$B$2:$E$13,B39,PMT!$E$2:$E$13))</f>
+        <f>IF(B39="","",SUMIF(TRANX!$B$2:$E$13,B39,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J39" s="28" t="str">
@@ -19496,7 +19496,7 @@
         <v/>
       </c>
       <c r="W39" s="1" t="str">
-        <f>IF(PMT!B8="","",IF(PMT!B8&gt;EOMONTH($B$5,-1)+1,PMT!B8,""))</f>
+        <f>IF(TRANX!B8="","",IF(TRANX!B8&gt;EOMONTH($B$5,-1)+1,TRANX!B8,""))</f>
         <v/>
       </c>
     </row>
@@ -19505,7 +19505,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="27" t="str">
-        <f>IFERROR(IF(A40=0,EOMONTH($B$5,-1)+1,IF(A40&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A40,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A40=0,EOMONTH($B$5,-1)+1,IF(A40&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A40,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C40" s="1" t="str">
@@ -19529,11 +19529,11 @@
         <v/>
       </c>
       <c r="H40" s="6" t="str">
-        <f>IF(B40="","",SUMIF(PMT!$B$2:$F$13,B40,PMT!$F$2:$F$13))</f>
+        <f>IF(B40="","",SUMIF(TRANX!$B$2:$F$13,B40,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I40" s="28" t="str">
-        <f>IF(B40="","",SUMIF(PMT!$B$2:$E$13,B40,PMT!$E$2:$E$13))</f>
+        <f>IF(B40="","",SUMIF(TRANX!$B$2:$E$13,B40,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J40" s="28" t="str">
@@ -19582,7 +19582,7 @@
         <v/>
       </c>
       <c r="W40" s="1" t="str">
-        <f>IF(PMT!B9="","",IF(PMT!B9&gt;EOMONTH($B$5,-1)+1,PMT!B9,""))</f>
+        <f>IF(TRANX!B9="","",IF(TRANX!B9&gt;EOMONTH($B$5,-1)+1,TRANX!B9,""))</f>
         <v/>
       </c>
     </row>
@@ -19591,7 +19591,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="27" t="str">
-        <f>IFERROR(IF(A41=0,EOMONTH($B$5,-1)+1,IF(A41&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A41,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A41=0,EOMONTH($B$5,-1)+1,IF(A41&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A41,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C41" s="1" t="str">
@@ -19615,11 +19615,11 @@
         <v/>
       </c>
       <c r="H41" s="6" t="str">
-        <f>IF(B41="","",SUMIF(PMT!$B$2:$F$13,B41,PMT!$F$2:$F$13))</f>
+        <f>IF(B41="","",SUMIF(TRANX!$B$2:$F$13,B41,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I41" s="28" t="str">
-        <f>IF(B41="","",SUMIF(PMT!$B$2:$E$13,B41,PMT!$E$2:$E$13))</f>
+        <f>IF(B41="","",SUMIF(TRANX!$B$2:$E$13,B41,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J41" s="28" t="str">
@@ -19668,7 +19668,7 @@
         <v/>
       </c>
       <c r="W41" s="1" t="str">
-        <f>IF(PMT!B10="","",IF(PMT!B10&gt;EOMONTH($B$5,-1)+1,PMT!B10,""))</f>
+        <f>IF(TRANX!B10="","",IF(TRANX!B10&gt;EOMONTH($B$5,-1)+1,TRANX!B10,""))</f>
         <v/>
       </c>
     </row>
@@ -19677,7 +19677,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="27" t="str">
-        <f>IFERROR(IF(A42=0,EOMONTH($B$5,-1)+1,IF(A42&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A42,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A42=0,EOMONTH($B$5,-1)+1,IF(A42&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A42,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C42" s="1" t="str">
@@ -19701,11 +19701,11 @@
         <v/>
       </c>
       <c r="H42" s="6" t="str">
-        <f>IF(B42="","",SUMIF(PMT!$B$2:$F$13,B42,PMT!$F$2:$F$13))</f>
+        <f>IF(B42="","",SUMIF(TRANX!$B$2:$F$13,B42,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I42" s="28" t="str">
-        <f>IF(B42="","",SUMIF(PMT!$B$2:$E$13,B42,PMT!$E$2:$E$13))</f>
+        <f>IF(B42="","",SUMIF(TRANX!$B$2:$E$13,B42,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J42" s="28" t="str">
@@ -19754,7 +19754,7 @@
         <v/>
       </c>
       <c r="W42" s="1" t="str">
-        <f>IF(PMT!B11="","",IF(PMT!B11&gt;EOMONTH($B$5,-1)+1,PMT!B11,""))</f>
+        <f>IF(TRANX!B11="","",IF(TRANX!B11&gt;EOMONTH($B$5,-1)+1,TRANX!B11,""))</f>
         <v/>
       </c>
     </row>
@@ -19763,7 +19763,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="27" t="str">
-        <f>IFERROR(IF(A43=0,EOMONTH($B$5,-1)+1,IF(A43&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A43,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A43=0,EOMONTH($B$5,-1)+1,IF(A43&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A43,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C43" s="1" t="str">
@@ -19787,11 +19787,11 @@
         <v/>
       </c>
       <c r="H43" s="6" t="str">
-        <f>IF(B43="","",SUMIF(PMT!$B$2:$F$13,B43,PMT!$F$2:$F$13))</f>
+        <f>IF(B43="","",SUMIF(TRANX!$B$2:$F$13,B43,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I43" s="28" t="str">
-        <f>IF(B43="","",SUMIF(PMT!$B$2:$E$13,B43,PMT!$E$2:$E$13))</f>
+        <f>IF(B43="","",SUMIF(TRANX!$B$2:$E$13,B43,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J43" s="28" t="str">
@@ -19840,7 +19840,7 @@
         <v/>
       </c>
       <c r="W43" s="1" t="str">
-        <f>IF(PMT!B12="","",IF(PMT!B12&gt;EOMONTH($B$5,-1)+1,PMT!B12,""))</f>
+        <f>IF(TRANX!B12="","",IF(TRANX!B12&gt;EOMONTH($B$5,-1)+1,TRANX!B12,""))</f>
         <v/>
       </c>
     </row>
@@ -19849,7 +19849,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="27" t="str">
-        <f>IFERROR(IF(A44=0,EOMONTH($B$5,-1)+1,IF(A44&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A44,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A44=0,EOMONTH($B$5,-1)+1,IF(A44&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A44,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C44" s="1" t="str">
@@ -19873,11 +19873,11 @@
         <v/>
       </c>
       <c r="H44" s="6" t="str">
-        <f>IF(B44="","",SUMIF(PMT!$B$2:$F$13,B44,PMT!$F$2:$F$13))</f>
+        <f>IF(B44="","",SUMIF(TRANX!$B$2:$F$13,B44,TRANX!$F$2:$F$13))</f>
         <v/>
       </c>
       <c r="I44" s="28" t="str">
-        <f>IF(B44="","",SUMIF(PMT!$B$2:$E$13,B44,PMT!$E$2:$E$13))</f>
+        <f>IF(B44="","",SUMIF(TRANX!$B$2:$E$13,B44,TRANX!$E$2:$E$13))</f>
         <v/>
       </c>
       <c r="J44" s="28" t="str">
@@ -19926,7 +19926,7 @@
         <v/>
       </c>
       <c r="W44" s="1" t="str">
-        <f>IF(PMT!B13="","",IF(PMT!B13&gt;EOMONTH($B$5,-1)+1,PMT!B13,""))</f>
+        <f>IF(TRANX!B13="","",IF(TRANX!B13&gt;EOMONTH($B$5,-1)+1,TRANX!B13,""))</f>
         <v/>
       </c>
     </row>
@@ -19935,7 +19935,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="27" t="str">
-        <f>IFERROR(IF(A45=0,EOMONTH($B$5,-1)+1,IF(A45&gt;$B$7,"",IF(PMT!$B$2="",CALCULATION!$B$5,VLOOKUP(A45,$V$33:$W$44,2,FALSE)))),"")</f>
+        <f>IFERROR(IF(A45=0,EOMONTH($B$5,-1)+1,IF(A45&gt;$B$7,"",IF(TRANX!$B$2="",CALCULATION!$B$5,VLOOKUP(A45,$V$33:$W$44,2,FALSE)))),"")</f>
         <v/>
       </c>
       <c r="C45" s="1" t="str">
@@ -19994,7 +19994,7 @@
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="136" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="136"/>
       <c r="C48" s="136"/>
@@ -20204,7 +20204,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>1</v>
@@ -20556,7 +20556,7 @@
         <v>44607</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>28</v>
@@ -20798,7 +20798,7 @@
         <v>44645</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>28</v>
@@ -21077,7 +21077,7 @@
         <v>44607</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>28</v>
@@ -21441,7 +21441,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>28</v>
@@ -21706,7 +21706,7 @@
         <v>44712</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>28</v>
@@ -21730,7 +21730,7 @@
         <v>44712</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>2</v>
@@ -21782,7 +21782,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="131" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -21794,13 +21794,13 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>20</v>
@@ -21815,13 +21815,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21832,7 +21832,7 @@
         <v>44607</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="75">
         <v>1</v>
@@ -21856,7 +21856,7 @@
         <v>44614</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="75">
         <v>1</v>
@@ -21876,7 +21876,7 @@
         <v>44635</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -21896,7 +21896,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -21916,7 +21916,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="59">
         <v>1</v>
@@ -21936,7 +21936,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="59">
         <v>1</v>
@@ -21954,7 +21954,7 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="92" t="s">
         <v>20</v>
@@ -21969,7 +21969,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21980,7 +21980,7 @@
         <v>44607</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -21998,7 +21998,7 @@
         <v>44635</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -22016,7 +22016,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -22034,7 +22034,7 @@
         <v>44671</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="59">
         <v>1</v>
@@ -22052,7 +22052,7 @@
         <v>44614</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="59">
         <v>1</v>
@@ -22064,13 +22064,13 @@
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="92" t="s">
         <v>20</v>
@@ -22085,10 +22085,10 @@
         <v>42</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -22099,7 +22099,7 @@
         <v>44620</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="75">
         <v>1</v>
@@ -22122,7 +22122,7 @@
         <v>44651</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -22145,7 +22145,7 @@
         <v>44681</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -22168,7 +22168,7 @@
         <v>44712</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="59">
         <v>1</v>
@@ -22186,7 +22186,7 @@
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="131" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
@@ -22207,7 +22207,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="105" t="s">
         <v>1</v>
@@ -22224,10 +22224,10 @@
         <v>20220131</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="45">
         <v>100</v>
@@ -22244,10 +22244,10 @@
         <v>20220131</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" s="45">
         <v>100000</v>
@@ -22264,10 +22264,10 @@
         <v>20220215</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="45">
         <v>5000</v>
@@ -22284,10 +22284,10 @@
         <v>20220228</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="45">
         <v>797.22219999999993</v>
@@ -22304,10 +22304,10 @@
         <v>20220325</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="45">
         <v>7000</v>
@@ -22324,10 +22324,10 @@
         <v>20220315</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40" s="45">
         <v>-1305.5555999999999</v>
@@ -22344,10 +22344,10 @@
         <v>20220315</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" s="45">
         <v>-194.4444</v>
@@ -22364,10 +22364,10 @@
         <v>20220315</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" s="45">
         <v>1500</v>
@@ -22384,10 +22384,10 @@
         <v>20220331</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="45">
         <v>916.85950000000003</v>
@@ -22404,10 +22404,10 @@
         <v>20220420</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="45">
         <v>-1098.6111000000001</v>
@@ -22424,10 +22424,10 @@
         <v>20220420</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E45" s="45">
         <v>-901.38890000000004</v>
@@ -22444,10 +22444,10 @@
         <v>20220420</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="45">
         <v>1500</v>
@@ -22464,10 +22464,10 @@
         <v>20220430</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E47" s="45">
         <v>928.95869999999991</v>
@@ -22484,10 +22484,10 @@
         <v>20220531</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48" s="45">
         <v>-1.2343999999999999</v>
@@ -22504,10 +22504,10 @@
         <v>20220531</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="45">
         <v>-404</v>
@@ -22524,10 +22524,10 @@
         <v>20220222</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" s="45">
         <v>400</v>
@@ -22544,10 +22544,10 @@
         <v>20220531</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="45">
         <v>951.52919999999995</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F39FC3-9340-4563-8244-80BD2CCE1BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354416B-3A1A-4F8B-9EEC-55131CDCC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -1316,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,8 +2206,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2322,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,7 +4321,7 @@
   <dimension ref="A1:XFD58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4426,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="40">
-        <f>IF(B6&lt;&gt;"",COUNT(REPLAY!A2:A29),IF(TRANX!A2&lt;&gt;"",COUNT(TRANX!B2:B29),0))</f>
+        <f>IF(B6&lt;&gt;"",COUNT(REPLAY!A2:A29)+1,IF(TRANX!A2&lt;&gt;"",COUNT(TRANX!B2:B29),0))</f>
         <v>0</v>
       </c>
       <c r="C7" s="38"/>
@@ -17896,7 +17896,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="27" t="str">
-        <f>IF(A13&gt;$B$7,"",IF(REPLAY!B2=$B$5,EOMONTH($B$5,-1),REPLAY!B2))</f>
+        <f>IF(A13&gt;$B$7,"",IF(A13=$B$7,EOMONTH($B$5,-1),REPLAY!B2))</f>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
@@ -17961,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="27" t="str">
-        <f>IF(A14&gt;$B$7,"",IF(REPLAY!B3=$B$5,EOMONTH($B$5,-1),REPLAY!B3))</f>
+        <f>IF(A14&gt;$B$7,"",IF(A14=$B$7,EOMONTH($B$5,-1),REPLAY!B3))</f>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
@@ -18026,7 +18026,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="str">
-        <f>IF(A15&gt;$B$7,"",IF(REPLAY!B4=$B$5,EOMONTH($B$5,-1),REPLAY!B4))</f>
+        <f>IF(A15&gt;$B$7,"",IF(A15=$B$7,EOMONTH($B$5,-1),REPLAY!B4))</f>
         <v/>
       </c>
       <c r="C15" s="1" t="str">
@@ -18091,7 +18091,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="27" t="str">
-        <f>IF(A16&gt;$B$7,"",IF(REPLAY!B5=$B$5,EOMONTH($B$5,-1),REPLAY!B5))</f>
+        <f>IF(A16&gt;$B$7,"",IF(A16=$B$7,EOMONTH($B$5,-1),REPLAY!B5))</f>
         <v/>
       </c>
       <c r="C16" s="1" t="str">
@@ -18156,7 +18156,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="27" t="str">
-        <f>IF(A17&gt;$B$7,"",IF(REPLAY!B6=$B$5,EOMONTH($B$5,-1),REPLAY!B6))</f>
+        <f>IF(A17&gt;$B$7,"",IF(A17=$B$7,EOMONTH($B$5,-1),REPLAY!B6))</f>
         <v/>
       </c>
       <c r="C17" s="1" t="str">
@@ -18221,7 +18221,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="27" t="str">
-        <f>IF(A18&gt;$B$7,"",IF(REPLAY!B7=$B$5,EOMONTH($B$5,-1),REPLAY!B7))</f>
+        <f>IF(A18&gt;$B$7,"",IF(A18=$B$7,EOMONTH($B$5,-1),REPLAY!B7))</f>
         <v/>
       </c>
       <c r="C18" s="1" t="str">
@@ -18286,7 +18286,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="27" t="str">
-        <f>IF(A19&gt;$B$7,"",IF(REPLAY!B8=$B$5,EOMONTH($B$5,-1),REPLAY!B8))</f>
+        <f>IF(A19&gt;$B$7,"",IF(A19=$B$7,EOMONTH($B$5,-1),REPLAY!B8))</f>
         <v/>
       </c>
       <c r="C19" s="1" t="str">
@@ -18351,7 +18351,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="str">
-        <f>IF(A20&gt;$B$7,"",IF(REPLAY!B9=$B$5,EOMONTH($B$5,-1),REPLAY!B9))</f>
+        <f>IF(A20&gt;$B$7,"",IF(A20=$B$7,EOMONTH($B$5,-1),REPLAY!B9))</f>
         <v/>
       </c>
       <c r="C20" s="1" t="str">
@@ -18416,7 +18416,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="str">
-        <f>IF(A21&gt;$B$7,"",IF(REPLAY!B10=$B$5,EOMONTH($B$5,-1),REPLAY!B10))</f>
+        <f>IF(A21&gt;$B$7,"",IF(A21=$B$7,EOMONTH($B$5,-1),REPLAY!B10))</f>
         <v/>
       </c>
       <c r="C21" s="1" t="str">
@@ -18481,7 +18481,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="27" t="str">
-        <f>IF(A22&gt;$B$7,"",IF(REPLAY!B11=$B$5,EOMONTH($B$5,-1),REPLAY!B11))</f>
+        <f>IF(A22&gt;$B$7,"",IF(A22=$B$7,EOMONTH($B$5,-1),REPLAY!B11))</f>
         <v/>
       </c>
       <c r="C22" s="1" t="str">
@@ -18546,7 +18546,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="str">
-        <f>IF(A23&gt;$B$7,"",IF(REPLAY!B12=$B$5,EOMONTH($B$5,-1),REPLAY!B12))</f>
+        <f>IF(A23&gt;$B$7,"",IF(A23=$B$7,EOMONTH($B$5,-1),REPLAY!B12))</f>
         <v/>
       </c>
       <c r="C23" s="1" t="str">
@@ -18611,7 +18611,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="27" t="str">
-        <f>IF(A24&gt;$B$7,"",IF(REPLAY!B13=$B$5,EOMONTH($B$5,-1),REPLAY!B13))</f>
+        <f>IF(A24&gt;$B$7,"",IF(A24=$B$7,EOMONTH($B$5,-1),REPLAY!B13))</f>
         <v/>
       </c>
       <c r="C24" s="1" t="str">

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354416B-3A1A-4F8B-9EEC-55131CDCC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90EED4-853E-470E-B828-6A604A5AB56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4320,8 +4320,8 @@
   </sheetPr>
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17896,7 +17896,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="27" t="str">
-        <f>IF(A13&gt;$B$7,"",IF(A13=$B$7,EOMONTH($B$5,-1),REPLAY!B2))</f>
+        <f>IF(A13&gt;$B$7,"",IF(AND(A13=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B2))</f>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
@@ -17961,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="27" t="str">
-        <f>IF(A14&gt;$B$7,"",IF(A14=$B$7,EOMONTH($B$5,-1),REPLAY!B3))</f>
+        <f>IF(A14&gt;$B$7,"",IF(AND(A14=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B3))</f>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
@@ -18026,7 +18026,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="str">
-        <f>IF(A15&gt;$B$7,"",IF(A15=$B$7,EOMONTH($B$5,-1),REPLAY!B4))</f>
+        <f>IF(A15&gt;$B$7,"",IF(AND(A15=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B4))</f>
         <v/>
       </c>
       <c r="C15" s="1" t="str">
@@ -18091,7 +18091,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="27" t="str">
-        <f>IF(A16&gt;$B$7,"",IF(A16=$B$7,EOMONTH($B$5,-1),REPLAY!B5))</f>
+        <f>IF(A16&gt;$B$7,"",IF(AND(A16=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B5))</f>
         <v/>
       </c>
       <c r="C16" s="1" t="str">
@@ -18156,7 +18156,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="27" t="str">
-        <f>IF(A17&gt;$B$7,"",IF(A17=$B$7,EOMONTH($B$5,-1),REPLAY!B6))</f>
+        <f>IF(A17&gt;$B$7,"",IF(AND(A17=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B6))</f>
         <v/>
       </c>
       <c r="C17" s="1" t="str">
@@ -18221,7 +18221,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="27" t="str">
-        <f>IF(A18&gt;$B$7,"",IF(A18=$B$7,EOMONTH($B$5,-1),REPLAY!B7))</f>
+        <f>IF(A18&gt;$B$7,"",IF(AND(A18=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B7))</f>
         <v/>
       </c>
       <c r="C18" s="1" t="str">
@@ -18286,7 +18286,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="27" t="str">
-        <f>IF(A19&gt;$B$7,"",IF(A19=$B$7,EOMONTH($B$5,-1),REPLAY!B8))</f>
+        <f>IF(A19&gt;$B$7,"",IF(AND(A19=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B8))</f>
         <v/>
       </c>
       <c r="C19" s="1" t="str">
@@ -18351,7 +18351,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="str">
-        <f>IF(A20&gt;$B$7,"",IF(A20=$B$7,EOMONTH($B$5,-1),REPLAY!B9))</f>
+        <f>IF(A20&gt;$B$7,"",IF(AND(A20=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B9))</f>
         <v/>
       </c>
       <c r="C20" s="1" t="str">
@@ -18416,7 +18416,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="str">
-        <f>IF(A21&gt;$B$7,"",IF(A21=$B$7,EOMONTH($B$5,-1),REPLAY!B10))</f>
+        <f>IF(A21&gt;$B$7,"",IF(AND(A21=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B10))</f>
         <v/>
       </c>
       <c r="C21" s="1" t="str">
@@ -18481,7 +18481,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="27" t="str">
-        <f>IF(A22&gt;$B$7,"",IF(A22=$B$7,EOMONTH($B$5,-1),REPLAY!B11))</f>
+        <f>IF(A22&gt;$B$7,"",IF(AND(A22=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B11))</f>
         <v/>
       </c>
       <c r="C22" s="1" t="str">
@@ -18546,7 +18546,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="str">
-        <f>IF(A23&gt;$B$7,"",IF(A23=$B$7,EOMONTH($B$5,-1),REPLAY!B12))</f>
+        <f>IF(A23&gt;$B$7,"",IF(AND(A23=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B12))</f>
         <v/>
       </c>
       <c r="C23" s="1" t="str">
@@ -18611,7 +18611,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="27" t="str">
-        <f>IF(A24&gt;$B$7,"",IF(A24=$B$7,EOMONTH($B$5,-1),REPLAY!B13))</f>
+        <f>IF(A24&gt;$B$7,"",IF(AND(A24=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B13))</f>
         <v/>
       </c>
       <c r="C24" s="1" t="str">

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90EED4-853E-470E-B828-6A604A5AB56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E547C2E7-7E1E-4381-BC85-1A7BA43D9E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="91">
   <si>
     <t>Transactions</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
 </sst>
 </file>
@@ -2206,8 +2212,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,10 +2248,10 @@
         <v>46</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4320,7 +4326,7 @@
   </sheetPr>
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E547C2E7-7E1E-4381-BC85-1A7BA43D9E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C0251-1EE7-4807-B670-C0C4EC35278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="EXPECTED" sheetId="38" r:id="rId4"/>
     <sheet name="Scenario" sheetId="30" r:id="rId5"/>
     <sheet name="CALCULATION" sheetId="36" r:id="rId6"/>
-    <sheet name="o_Transaction" sheetId="7" r:id="rId7"/>
-    <sheet name="Scenario2" sheetId="39" r:id="rId8"/>
-    <sheet name="EXPECTED2" sheetId="40" r:id="rId9"/>
-    <sheet name="Check" sheetId="41" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="42" r:id="rId7"/>
+    <sheet name="o_Transaction" sheetId="7" r:id="rId8"/>
+    <sheet name="Scenario2" sheetId="39" r:id="rId9"/>
+    <sheet name="EXPECTED2" sheetId="40" r:id="rId10"/>
+    <sheet name="Check" sheetId="41" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Check!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Check!$A$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Scenario!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Scenario2!$A$2:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Scenario2!$A$2:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="95">
   <si>
     <t>Transactions</t>
   </si>
@@ -324,6 +325,18 @@
   <si>
     <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Servicing_Interest_Accrual</t>
+  </si>
+  <si>
+    <t>Principal_Adjustment</t>
+  </si>
+  <si>
+    <t>Interest_Adjustment</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +352,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.000000000_);[Red]\(#,##0.000000000\)"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +435,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444746"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -479,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -735,6 +754,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -742,9 +772,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -755,19 +796,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -776,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1011,21 +1039,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +1073,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,7 +1363,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,6 +1501,816 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CC70E-CB82-4754-868F-6D9B4E3FC2C9}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="83">
+        <v>44712</v>
+      </c>
+      <c r="B6" s="80">
+        <v>44592</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="81">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
+        <v>44712</v>
+      </c>
+      <c r="B7" s="84">
+        <v>44607</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1</v>
+      </c>
+      <c r="E7" s="124"/>
+      <c r="F7" s="86">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="83">
+        <v>44712</v>
+      </c>
+      <c r="B8" s="84">
+        <v>44614</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1</v>
+      </c>
+      <c r="E8" s="85">
+        <v>400</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <v>44712</v>
+      </c>
+      <c r="B9" s="80">
+        <v>44635</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="81">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <v>44712</v>
+      </c>
+      <c r="B10" s="80">
+        <v>44645</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82">
+        <v>7000</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>44712</v>
+      </c>
+      <c r="B11" s="80">
+        <v>44671</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="59">
+        <v>1</v>
+      </c>
+      <c r="E11" s="81">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="96">
+        <v>44620</v>
+      </c>
+      <c r="B16" s="96">
+        <v>44607</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="123"/>
+      <c r="F16" s="98">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="96">
+        <v>44651</v>
+      </c>
+      <c r="B17" s="97">
+        <v>44635</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="98">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="98"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="96">
+        <v>44651</v>
+      </c>
+      <c r="B18" s="97">
+        <v>44645</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="96">
+        <v>44681</v>
+      </c>
+      <c r="B19" s="97">
+        <v>44671</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="98">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="98"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
+        <v>44712</v>
+      </c>
+      <c r="B20" s="100">
+        <v>44614</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="59">
+        <v>1</v>
+      </c>
+      <c r="E20" s="101">
+        <v>400</v>
+      </c>
+      <c r="F20" s="101"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="83">
+        <v>44620</v>
+      </c>
+      <c r="B25" s="83">
+        <v>44620</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="75">
+        <v>1</v>
+      </c>
+      <c r="E25" s="104">
+        <v>10</v>
+      </c>
+      <c r="F25" s="85">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <v>44651</v>
+      </c>
+      <c r="B26" s="79">
+        <v>44651</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="102">
+        <v>10</v>
+      </c>
+      <c r="F26" s="85">
+        <v>105000</v>
+      </c>
+      <c r="G26" s="85">
+        <v>897.22222222222229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
+        <v>44681</v>
+      </c>
+      <c r="B27" s="79">
+        <v>44681</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="102">
+        <v>10</v>
+      </c>
+      <c r="F27" s="81">
+        <v>111805.55555555556</v>
+      </c>
+      <c r="G27" s="81">
+        <v>508.52623456790127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="103">
+        <v>44712</v>
+      </c>
+      <c r="B28" s="103">
+        <v>44712</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="59">
+        <v>1</v>
+      </c>
+      <c r="E28" s="102">
+        <v>10</v>
+      </c>
+      <c r="F28" s="81">
+        <v>110904.16666666667</v>
+      </c>
+      <c r="G28" s="81">
+        <v>338.87384259259261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B35" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="45">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="45">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="B37" s="6">
+        <v>20220215</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="45">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="B38" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="45">
+        <v>797.22219999999993</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B39" s="6">
+        <v>20220325</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="45">
+        <v>7000</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B40" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="45">
+        <v>-1305.5555999999999</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B41" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="45">
+        <v>-194.4444</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B42" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B43" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="45">
+        <v>916.85950000000003</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B44" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="45">
+        <v>-1098.6111000000001</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B45" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="45">
+        <v>-901.38890000000004</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B46" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="45">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B47" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="45">
+        <v>928.95869999999991</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B48" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="45">
+        <v>-1.2343999999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="45">
+        <v>-404</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20220222</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="45">
+        <v>400</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B51" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="45">
+        <v>951.52919999999995</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:H31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE9B9B5-72E8-46E5-A267-FCBEA81EA625}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -1490,18 +2340,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="H1" s="135" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="H1" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="135"/>
+      <c r="I1" s="132"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +3063,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,10 +3175,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,16 +3194,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="53" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -2362,53 +3212,51 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="139" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+    <row r="6" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
         <v>44712</v>
       </c>
-      <c r="B6" s="84">
-        <v>44614</v>
-      </c>
-      <c r="C6" s="75" t="s">
+      <c r="B6" s="143">
+        <v>44592</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="85">
-        <v>400</v>
-      </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85">
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="81">
         <v>100000</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="82">
         <v>100</v>
       </c>
     </row>
@@ -2417,7 +3265,7 @@
         <v>44712</v>
       </c>
       <c r="B7" s="80">
-        <v>44635</v>
+        <v>44614</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>45</v>
@@ -2426,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="81">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2437,7 +3285,7 @@
         <v>44712</v>
       </c>
       <c r="B8" s="80">
-        <v>44645</v>
+        <v>44635</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>45</v>
@@ -2445,39 +3293,39 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="E8" s="81">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>44712</v>
       </c>
       <c r="B9" s="80">
-        <v>44671</v>
+        <v>44645</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="81">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>44712</v>
       </c>
       <c r="B10" s="80">
-        <v>44712</v>
+        <v>44671</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>45</v>
@@ -2485,61 +3333,63 @@
       <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="81">
+        <v>2000</v>
+      </c>
       <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="90" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>44712</v>
+      </c>
+      <c r="B11" s="80">
+        <v>44712</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="59">
+        <v>1</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="90" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B15" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C15" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E15" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F15" s="93" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="96">
-        <v>44651</v>
-      </c>
-      <c r="B15" s="97">
-        <v>44635</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="98">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="98"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="96">
         <v>44651</v>
       </c>
       <c r="B16" s="97">
-        <v>44645</v>
+        <v>44635</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>45</v>
@@ -2547,35 +3397,35 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98">
-        <v>7000</v>
-      </c>
+      <c r="E16" s="98">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="98"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="96">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B17" s="97">
-        <v>44671</v>
+        <v>44645</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="98">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98">
+        <v>7000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="99">
-        <v>44712</v>
-      </c>
-      <c r="B18" s="100">
-        <v>44614</v>
+      <c r="A18" s="96">
+        <v>44681</v>
+      </c>
+      <c r="B18" s="97">
+        <v>44671</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -2583,92 +3433,87 @@
       <c r="D18" s="59">
         <v>1</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="98">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="98"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="99">
+        <v>44712</v>
+      </c>
+      <c r="B19" s="100">
+        <v>44614</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="101">
         <v>400</v>
       </c>
-      <c r="F18" s="101"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="90" t="s">
+      <c r="F19" s="101"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B23" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C23" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D23" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E23" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F23" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="89" t="s">
+      <c r="G23" s="89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="83">
         <v>44620</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B24" s="83">
         <v>44620</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C24" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D24" s="75">
         <v>1</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E24" s="104">
         <v>10</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F24" s="85">
         <v>100000</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G24" s="85">
         <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="79">
-        <v>44651</v>
-      </c>
-      <c r="B24" s="79">
-        <v>44651</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="102">
-        <v>10</v>
-      </c>
-      <c r="F24" s="81">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="81">
-        <v>877.77779999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="79">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B25" s="79">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>45</v>
@@ -2680,86 +3525,89 @@
         <v>10</v>
       </c>
       <c r="F25" s="81">
-        <v>106766.6667</v>
+        <v>100000</v>
       </c>
       <c r="G25" s="81">
-        <v>484.73149999999998</v>
+        <v>877.77779999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="103">
-        <v>44712</v>
-      </c>
-      <c r="B26" s="103">
-        <v>44712</v>
+      <c r="A26" s="79">
+        <v>44681</v>
+      </c>
+      <c r="B26" s="79">
+        <v>44681</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="102">
         <v>10</v>
       </c>
       <c r="F26" s="81">
+        <v>106766.6667</v>
+      </c>
+      <c r="G26" s="81">
+        <v>484.73149999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="103">
+        <v>44712</v>
+      </c>
+      <c r="B27" s="103">
+        <v>44712</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="59">
+        <v>1</v>
+      </c>
+      <c r="E27" s="102">
+        <v>10</v>
+      </c>
+      <c r="F27" s="81">
         <v>105814.88890000001</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G27" s="81">
         <v>323.32330000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="131" t="s">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="105" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B33" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C33" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D33" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="105" t="s">
+      <c r="E33" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="F33" s="105" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="45">
-        <v>100</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,10 +3621,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="45">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
@@ -2784,19 +3632,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>20220228</v>
+        <v>20220131</v>
       </c>
       <c r="B35" s="6">
-        <v>20220228</v>
+        <v>20220131</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="45">
-        <v>777.77779999999996</v>
+        <v>100000</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
@@ -2804,19 +3652,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>20220331</v>
+        <v>20220228</v>
       </c>
       <c r="B36" s="6">
-        <v>20220325</v>
+        <v>20220228</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="45">
-        <v>7000</v>
+        <v>777.77779999999996</v>
       </c>
       <c r="F36" s="6">
         <v>1</v>
@@ -2827,16 +3675,16 @@
         <v>20220331</v>
       </c>
       <c r="B37" s="6">
-        <v>20220315</v>
+        <v>20220325</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="45">
-        <v>-1266.6667</v>
+        <v>7000</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -2853,10 +3701,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="45">
-        <v>-233.33330000000001</v>
+        <v>-1266.6667</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
@@ -2873,10 +3721,10 @@
         <v>9</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="45">
-        <v>1500</v>
+        <v>-233.33330000000001</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
@@ -2887,16 +3735,16 @@
         <v>20220331</v>
       </c>
       <c r="B40" s="6">
-        <v>20220331</v>
+        <v>20220315</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E40" s="45">
-        <v>873.6203999999999</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="6">
         <v>1</v>
@@ -2904,19 +3752,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>20220430</v>
+        <v>20220331</v>
       </c>
       <c r="B41" s="6">
-        <v>20220420</v>
+        <v>20220331</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="45">
-        <v>-1048.2221999999999</v>
+        <v>873.6203999999999</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
@@ -2933,10 +3781,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="45">
-        <v>-951.77779999999996</v>
+        <v>-1048.2221999999999</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
@@ -2953,10 +3801,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="45">
-        <v>1500</v>
+        <v>-951.77779999999996</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -2967,16 +3815,16 @@
         <v>20220430</v>
       </c>
       <c r="B44" s="6">
-        <v>20220430</v>
+        <v>20220420</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E44" s="45">
-        <v>886.81399999999996</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
@@ -2984,19 +3832,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="B45" s="6">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E45" s="45">
-        <v>-1.2343999999999999</v>
+        <v>886.81399999999996</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
@@ -3013,10 +3861,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="45">
-        <v>-404</v>
+        <v>-1.2343999999999999</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
@@ -3027,16 +3875,16 @@
         <v>20220531</v>
       </c>
       <c r="B47" s="6">
-        <v>20220222</v>
+        <v>20220531</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="45">
-        <v>400</v>
+        <v>-404</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
@@ -3047,28 +3895,48 @@
         <v>20220531</v>
       </c>
       <c r="B48" s="6">
-        <v>20220531</v>
+        <v>20220222</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E48" s="45">
-        <v>907.70489999999995</v>
+        <v>400</v>
       </c>
       <c r="F48" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="45">
+        <v>907.70489999999995</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3105,18 +3973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="H1" s="135" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="H1" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="135"/>
+      <c r="I1" s="132"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
@@ -3164,7 +4032,7 @@
       <c r="I2" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="126" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -3202,7 +4070,7 @@
       <c r="I3" s="76">
         <v>0</v>
       </c>
-      <c r="K3" s="128">
+      <c r="K3" s="125">
         <f>ROUND(E3,4)</f>
         <v>100000</v>
       </c>
@@ -3236,7 +4104,7 @@
         <f>E4</f>
         <v>100</v>
       </c>
-      <c r="K4" s="128">
+      <c r="K4" s="125">
         <f t="shared" ref="K4:K36" si="0">ROUND(E4,4)</f>
         <v>100</v>
       </c>
@@ -3273,7 +4141,7 @@
         <f>I4+E5</f>
         <v>877.77777777777783</v>
       </c>
-      <c r="K5" s="128">
+      <c r="K5" s="125">
         <f t="shared" si="0"/>
         <v>777.77779999999996</v>
       </c>
@@ -3310,7 +4178,7 @@
         <f>I5+E6</f>
         <v>1266.6666666666667</v>
       </c>
-      <c r="K6" s="128">
+      <c r="K6" s="125">
         <f t="shared" si="0"/>
         <v>388.88889999999998</v>
       </c>
@@ -3341,7 +4209,7 @@
         <f>I6</f>
         <v>1266.6666666666667</v>
       </c>
-      <c r="K7" s="128">
+      <c r="K7" s="125">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -3377,7 +4245,7 @@
         <v>1266.6666666666667</v>
       </c>
       <c r="J8" s="36"/>
-      <c r="K8" s="128">
+      <c r="K8" s="125">
         <f t="shared" si="0"/>
         <v>-233.33330000000001</v>
       </c>
@@ -3411,7 +4279,7 @@
         <f>I8+E9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="128">
+      <c r="K9" s="125">
         <f t="shared" si="0"/>
         <v>-1266.6667</v>
       </c>
@@ -3448,7 +4316,7 @@
         <f>E10+I9</f>
         <v>277.12962962962968</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="125">
         <f t="shared" si="0"/>
         <v>277.12959999999998</v>
       </c>
@@ -3481,7 +4349,7 @@
         <f>I10</f>
         <v>277.12962962962968</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="125">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -3519,7 +4387,7 @@
         <f>E12+I11</f>
         <v>484.73148148148152</v>
       </c>
-      <c r="K12" s="128">
+      <c r="K12" s="125">
         <f t="shared" si="0"/>
         <v>207.6019</v>
       </c>
@@ -3557,7 +4425,7 @@
         <v>1048.2222222222222</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="128">
+      <c r="K13" s="125">
         <f t="shared" si="0"/>
         <v>563.49069999999995</v>
       </c>
@@ -3588,7 +4456,7 @@
         <f>I13</f>
         <v>1048.2222222222222</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="125">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -3622,7 +4490,7 @@
         <f>I14</f>
         <v>1048.2222222222222</v>
       </c>
-      <c r="K15" s="128">
+      <c r="K15" s="125">
         <f t="shared" si="0"/>
         <v>-951.77779999999996</v>
       </c>
@@ -3656,7 +4524,7 @@
         <f>I15+E16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="128">
+      <c r="K16" s="125">
         <f t="shared" si="0"/>
         <v>-1048.2221999999999</v>
       </c>
@@ -3693,7 +4561,7 @@
         <v>323.32327160493827</v>
       </c>
       <c r="J17" s="36"/>
-      <c r="K17" s="128">
+      <c r="K17" s="125">
         <f t="shared" si="0"/>
         <v>323.32330000000002</v>
       </c>
@@ -3727,7 +4595,7 @@
         <f>I4+(H18*N2*G18)</f>
         <v>683.33333333333337</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="125">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -3759,7 +4627,7 @@
       <c r="I19" s="76">
         <v>0</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3793,7 +4661,7 @@
         <f>I18+E20</f>
         <v>283.33333333333337</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="125">
         <f t="shared" si="0"/>
         <v>-400</v>
       </c>
@@ -3829,7 +4697,7 @@
         <f>I20+E21</f>
         <v>477.77777777777783</v>
       </c>
-      <c r="K21" s="128">
+      <c r="K21" s="125">
         <f t="shared" si="0"/>
         <v>194.4444</v>
       </c>
@@ -3863,7 +4731,7 @@
         <f>I21+E22</f>
         <v>866.66666666666674</v>
       </c>
-      <c r="K22" s="128">
+      <c r="K22" s="125">
         <f t="shared" si="0"/>
         <v>388.88889999999998</v>
       </c>
@@ -3893,7 +4761,7 @@
         <f>I22</f>
         <v>866.66666666666674</v>
       </c>
-      <c r="K23" s="128">
+      <c r="K23" s="125">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -3925,7 +4793,7 @@
         <f>I23</f>
         <v>866.66666666666674</v>
       </c>
-      <c r="K24" s="128">
+      <c r="K24" s="125">
         <f t="shared" si="0"/>
         <v>-633.33330000000001</v>
       </c>
@@ -3957,7 +4825,7 @@
         <f>I24+E25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="128">
+      <c r="K25" s="125">
         <f t="shared" si="0"/>
         <v>-866.66669999999999</v>
       </c>
@@ -3991,7 +4859,7 @@
         <f>I25+E26</f>
         <v>276.01851851851853</v>
       </c>
-      <c r="K26" s="128">
+      <c r="K26" s="125">
         <f t="shared" si="0"/>
         <v>276.01850000000002</v>
       </c>
@@ -4023,7 +4891,7 @@
         <f>I26</f>
         <v>276.01851851851853</v>
       </c>
-      <c r="K27" s="128">
+      <c r="K27" s="125">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -4057,7 +4925,7 @@
         <f>I27+E28</f>
         <v>482.84259259259261</v>
       </c>
-      <c r="K28" s="128">
+      <c r="K28" s="125">
         <f t="shared" si="0"/>
         <v>206.82409999999999</v>
       </c>
@@ -4091,7 +4959,7 @@
         <f>I28+E29</f>
         <v>1044.2222222222222</v>
       </c>
-      <c r="K29" s="128">
+      <c r="K29" s="125">
         <f t="shared" si="0"/>
         <v>561.37959999999998</v>
       </c>
@@ -4121,7 +4989,7 @@
         <f>I29</f>
         <v>1044.2222222222222</v>
       </c>
-      <c r="K30" s="128">
+      <c r="K30" s="125">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -4153,7 +5021,7 @@
         <f>I30</f>
         <v>1044.2222222222222</v>
       </c>
-      <c r="K31" s="128">
+      <c r="K31" s="125">
         <f t="shared" si="0"/>
         <v>-955.77779999999996</v>
       </c>
@@ -4185,7 +5053,7 @@
         <f>I31+E32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="128">
+      <c r="K32" s="125">
         <f t="shared" si="0"/>
         <v>-1044.2221999999999</v>
       </c>
@@ -4219,7 +5087,7 @@
         <f>I32+E33</f>
         <v>322.08882716049385</v>
       </c>
-      <c r="K33" s="128">
+      <c r="K33" s="125">
         <f t="shared" si="0"/>
         <v>322.08879999999999</v>
       </c>
@@ -4256,7 +5124,7 @@
         <f>I33+E34</f>
         <v>1229.7937037037038</v>
       </c>
-      <c r="K34" s="128">
+      <c r="K34" s="125">
         <f t="shared" si="0"/>
         <v>907.70489999999995</v>
       </c>
@@ -4280,7 +5148,7 @@
       </c>
       <c r="F35" s="114"/>
       <c r="G35" s="4"/>
-      <c r="K35" s="128">
+      <c r="K35" s="125">
         <f t="shared" si="0"/>
         <v>-404</v>
       </c>
@@ -4304,7 +5172,7 @@
       </c>
       <c r="F36" s="114"/>
       <c r="G36" s="4"/>
-      <c r="K36" s="128">
+      <c r="K36" s="125">
         <f t="shared" si="0"/>
         <v>-1.2343999999999999</v>
       </c>
@@ -4326,8 +5194,8 @@
   </sheetPr>
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,19 +5226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -4432,7 +5300,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="40">
-        <f>IF(B6&lt;&gt;"",COUNT(REPLAY!A2:A29)+1,IF(TRANX!A2&lt;&gt;"",COUNT(TRANX!B2:B29),0))</f>
+        <f>IF(B6&lt;&gt;"",COUNT(REPLAY!A2:A29),IF(TRANX!A2&lt;&gt;"",COUNT(TRANX!B2:B29),0))</f>
         <v>0</v>
       </c>
       <c r="C7" s="38"/>
@@ -4461,24 +5329,24 @@
       <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
@@ -4535,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="27">
-        <f>IFERROR(IF(A12=0,EOMONTH($B$6,-1)+1,0),0)</f>
+        <f>IFERROR(IF(A12=0,EOMONTH($B$6,0)+1,0),0)</f>
         <v>0</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -17902,7 +18770,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="27" t="str">
-        <f>IF(A13&gt;$B$7,"",IF(AND(A13=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B2))</f>
+        <f>IF(A13&gt;$B$7,"",IF(AND(A13=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B3))</f>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
@@ -17918,7 +18786,7 @@
         <v/>
       </c>
       <c r="F13" s="28" t="str">
-        <f>IFERROR(IF(B13="","",VLOOKUP(B13,REPLAY!$B$2:$H$3,6,FALSE)),"")</f>
+        <f t="shared" ref="F13:F24" si="7">IF(B13="","",M12)</f>
         <v/>
       </c>
       <c r="G13" s="31">
@@ -17926,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="str">
-        <f>IFERROR(IF(B13="","",IF(B6="","",VLOOKUP(B13,REPLAY!$B$2:$H$3,7,FALSE)+G13)),"")</f>
+        <f>IFERROR(IF(B13="","",IF(B6="","",VLOOKUP($B$6,REPLAY!$B$2:$H$3,7,FALSE)+G13)),"")</f>
         <v/>
       </c>
       <c r="I13" s="6" t="str">
@@ -17967,7 +18835,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="27" t="str">
-        <f>IF(A14&gt;$B$7,"",IF(AND(A14=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B3))</f>
+        <f>IF(A14&gt;$B$7,"",IF(AND(A14=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B4))</f>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
@@ -17983,7 +18851,7 @@
         <v/>
       </c>
       <c r="F14" s="28" t="str">
-        <f t="shared" ref="F14:F24" si="7">IF(B14="","",M13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G14" s="31">
@@ -18032,7 +18900,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="str">
-        <f>IF(A15&gt;$B$7,"",IF(AND(A15=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B4))</f>
+        <f>IF(A15&gt;$B$7,"",IF(AND(A15=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B5))</f>
         <v/>
       </c>
       <c r="C15" s="1" t="str">
@@ -18097,7 +18965,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="27" t="str">
-        <f>IF(A16&gt;$B$7,"",IF(AND(A16=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B5))</f>
+        <f>IF(A16&gt;$B$7,"",IF(AND(A16=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B6))</f>
         <v/>
       </c>
       <c r="C16" s="1" t="str">
@@ -18162,7 +19030,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="27" t="str">
-        <f>IF(A17&gt;$B$7,"",IF(AND(A17=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B6))</f>
+        <f>IF(A17&gt;$B$7,"",IF(AND(A17=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B7))</f>
         <v/>
       </c>
       <c r="C17" s="1" t="str">
@@ -18227,7 +19095,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="27" t="str">
-        <f>IF(A18&gt;$B$7,"",IF(AND(A18=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B7))</f>
+        <f>IF(A18&gt;$B$7,"",IF(AND(A18=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B8))</f>
         <v/>
       </c>
       <c r="C18" s="1" t="str">
@@ -18292,7 +19160,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="27" t="str">
-        <f>IF(A19&gt;$B$7,"",IF(AND(A19=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B8))</f>
+        <f>IF(A19&gt;$B$7,"",IF(AND(A19=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B9))</f>
         <v/>
       </c>
       <c r="C19" s="1" t="str">
@@ -18357,7 +19225,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="str">
-        <f>IF(A20&gt;$B$7,"",IF(AND(A20=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B9))</f>
+        <f>IF(A20&gt;$B$7,"",IF(AND(A20=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B10))</f>
         <v/>
       </c>
       <c r="C20" s="1" t="str">
@@ -18422,7 +19290,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="str">
-        <f>IF(A21&gt;$B$7,"",IF(AND(A21=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B10))</f>
+        <f>IF(A21&gt;$B$7,"",IF(AND(A21=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B11))</f>
         <v/>
       </c>
       <c r="C21" s="1" t="str">
@@ -18487,7 +19355,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="27" t="str">
-        <f>IF(A22&gt;$B$7,"",IF(AND(A22=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B11))</f>
+        <f>IF(A22&gt;$B$7,"",IF(AND(A22=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B12))</f>
         <v/>
       </c>
       <c r="C22" s="1" t="str">
@@ -18552,7 +19420,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="str">
-        <f>IF(A23&gt;$B$7,"",IF(AND(A23=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B12))</f>
+        <f>IF(A23&gt;$B$7,"",IF(AND(A23=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B13))</f>
         <v/>
       </c>
       <c r="C23" s="1" t="str">
@@ -18617,7 +19485,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="27" t="str">
-        <f>IF(A24&gt;$B$7,"",IF(AND(A24=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B13))</f>
+        <f>IF(A24&gt;$B$7,"",IF(AND(A24=$B$7,REPLAY!$A$2&lt;&gt;""),EOMONTH($B$5,-1),REPLAY!B14))</f>
         <v/>
       </c>
       <c r="C24" s="1" t="str">
@@ -18808,24 +19676,24 @@
       <c r="M30" s="41"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="139"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
     </row>
     <row r="32" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
@@ -18873,7 +19741,7 @@
       <c r="O32" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="130" t="s">
+      <c r="P32" s="127" t="s">
         <v>76</v>
       </c>
       <c r="Q32" s="64" t="s">
@@ -19999,14 +20867,14 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136" t="s">
+      <c r="A48" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
@@ -20178,6 +21046,3182 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6F10C5-629D-4AB9-AD73-41526039F66A}">
+  <dimension ref="A1:Y73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44712</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="25">
+        <v>44607</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="40">
+        <v>6</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="40">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+    </row>
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="27">
+        <v>44593</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44607</v>
+      </c>
+      <c r="D12" s="28">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <v>100000</v>
+      </c>
+      <c r="N12" s="31">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="O12" s="29">
+        <v>488.88888888888891</v>
+      </c>
+      <c r="P12" s="45">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="54">
+        <v>516.66666666666674</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27">
+        <v>44607</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44614</v>
+      </c>
+      <c r="D13" s="28">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="31">
+        <v>388.88888888888891</v>
+      </c>
+      <c r="H13" s="28">
+        <v>488.88888888888891</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>105000</v>
+      </c>
+      <c r="N13" s="31">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="O13" s="29">
+        <v>693.05555555555566</v>
+      </c>
+      <c r="P13" s="45">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="27">
+        <v>44614</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44635</v>
+      </c>
+      <c r="D14" s="28">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>22</v>
+      </c>
+      <c r="F14" s="28">
+        <v>105000</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>693.05555555555566</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>400</v>
+      </c>
+      <c r="K14" s="28">
+        <v>400</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>105000</v>
+      </c>
+      <c r="N14" s="31">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="O14" s="29">
+        <v>905.55555555555566</v>
+      </c>
+      <c r="P14" s="45">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44635</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44645</v>
+      </c>
+      <c r="D15" s="28">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>15</v>
+      </c>
+      <c r="F15" s="28">
+        <v>105000</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <v>905.55555555555566</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="28">
+        <v>905.55555555555566</v>
+      </c>
+      <c r="L15" s="29">
+        <v>594.44444444444434</v>
+      </c>
+      <c r="M15" s="30">
+        <v>104405.55555555556</v>
+      </c>
+      <c r="N15" s="31">
+        <v>29.001543209876544</v>
+      </c>
+      <c r="O15" s="29">
+        <v>290.01543209876547</v>
+      </c>
+      <c r="P15" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44645</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44671</v>
+      </c>
+      <c r="D16" s="28">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6">
+        <v>25</v>
+      </c>
+      <c r="F16" s="28">
+        <v>104405.55555555556</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>290.01543209876547</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7000</v>
+      </c>
+      <c r="J16" s="28">
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="30">
+        <v>111405.55555555556</v>
+      </c>
+      <c r="N16" s="31">
+        <v>30.945987654320991</v>
+      </c>
+      <c r="O16" s="29">
+        <v>1094.6111111111113</v>
+      </c>
+      <c r="P16" s="45">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="27">
+        <v>44671</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44681</v>
+      </c>
+      <c r="D17" s="28">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20</v>
+      </c>
+      <c r="F17" s="32">
+        <v>111405.55555555556</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1094.6111111111113</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="28">
+        <v>1094.6111111111113</v>
+      </c>
+      <c r="L17" s="29">
+        <v>905.38888888888869</v>
+      </c>
+      <c r="M17" s="30">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="N17" s="31">
+        <v>30.694490740740743</v>
+      </c>
+      <c r="O17" s="29">
+        <v>306.94490740740741</v>
+      </c>
+      <c r="P17" s="45">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44681</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44681</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30</v>
+      </c>
+      <c r="F18" s="32">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <v>306.94490740740741</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="N18" s="31">
+        <v>30.694490740740743</v>
+      </c>
+      <c r="O18" s="29">
+        <v>337.63939814814813</v>
+      </c>
+      <c r="P18" s="45">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>7</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>11</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>12</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="57">
+        <v>0</v>
+      </c>
+      <c r="L25" s="57">
+        <v>0</v>
+      </c>
+      <c r="M25" s="57">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="O25" s="57">
+        <v>337.63939814814813</v>
+      </c>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+    </row>
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="54">
+        <v>110904.16666666667</v>
+      </c>
+      <c r="C27" s="7">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-404</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="54">
+        <v>338.87384259259261</v>
+      </c>
+      <c r="C28" s="73">
+        <v>337.63939814814813</v>
+      </c>
+      <c r="D28" s="73">
+        <v>-1.2344444444444775</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+    </row>
+    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U32" s="53"/>
+      <c r="V32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>0</v>
+      </c>
+      <c r="B33" s="27">
+        <v>44682</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44712</v>
+      </c>
+      <c r="D33" s="28">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="28">
+        <v>110904.16666666667</v>
+      </c>
+      <c r="G33" s="28">
+        <v>338.87384259259261</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0</v>
+      </c>
+      <c r="K33" s="69">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>-404</v>
+      </c>
+      <c r="M33" s="7">
+        <v>-1.2344444444444775</v>
+      </c>
+      <c r="N33" s="72">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="O33" s="31">
+        <v>30.694490740740743</v>
+      </c>
+      <c r="P33" s="6">
+        <v>951.52921296296302</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>1289.1686111111112</v>
+      </c>
+      <c r="R33" s="45">
+        <v>33</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="53"/>
+      <c r="V33" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R34" s="45">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="53"/>
+      <c r="V34" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R35" s="45">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="53"/>
+      <c r="V35" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R36" s="45">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="53"/>
+      <c r="V36" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>4</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" s="45">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>5</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R38" s="45">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="53"/>
+      <c r="V38" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>6</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R39" s="45">
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>7</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R40" s="45">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="53"/>
+      <c r="V40" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>8</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R41" s="45">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="53"/>
+      <c r="V41" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>9</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R42" s="45">
+        <v>0</v>
+      </c>
+      <c r="S42" s="6">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="53"/>
+      <c r="V42" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>10</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R43" s="45">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="53"/>
+      <c r="V43" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>11</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O44" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R44" s="45">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="53"/>
+      <c r="V44" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="66">
+        <v>12</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="67">
+        <v>0</v>
+      </c>
+      <c r="K45" s="70">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="67">
+        <v>110500.16666666667</v>
+      </c>
+      <c r="O45" s="33"/>
+      <c r="P45" s="57">
+        <v>951.52921296296302</v>
+      </c>
+      <c r="Q45" s="57">
+        <v>1289.1686111111112</v>
+      </c>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53">
+        <v>1</v>
+      </c>
+      <c r="T45" s="77">
+        <v>0</v>
+      </c>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44712</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="26">
+        <v>951.52919999999995</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="58">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="58">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44712</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="58">
+        <v>-404</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="53"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44712</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="58">
+        <v>-1.2343999999999999</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="53"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" s="53"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="53"/>
+      <c r="R71" s="53"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="53"/>
+      <c r="U71" s="53"/>
+      <c r="V71" s="53"/>
+      <c r="W71" s="53"/>
+      <c r="X71" s="53"/>
+      <c r="Y71" s="53"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="53"/>
+      <c r="X72" s="53"/>
+      <c r="Y72" s="53"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A48:F48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -20355,7 +24399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B033939D-E4AE-451E-B930-D60EF00A5B6D}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -20385,18 +24429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="H1" s="135" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="135"/>
+      <c r="I1" s="132"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
@@ -20479,7 +24523,7 @@
       <c r="I3" s="76">
         <v>0</v>
       </c>
-      <c r="K3" s="128">
+      <c r="K3" s="125">
         <f>ROUND(E3,4)</f>
         <v>100000</v>
       </c>
@@ -20513,7 +24557,7 @@
         <f>E4</f>
         <v>100</v>
       </c>
-      <c r="K4" s="128">
+      <c r="K4" s="125">
         <f t="shared" ref="K4:K41" si="0">ROUND(E4,4)</f>
         <v>100</v>
       </c>
@@ -20549,7 +24593,7 @@
         <f>I4+E5</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="K5" s="128">
+      <c r="K5" s="125">
         <f t="shared" si="0"/>
         <v>388.88889999999998</v>
       </c>
@@ -20579,7 +24623,7 @@
         <f>I5</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="K6" s="128">
+      <c r="K6" s="125">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -20615,7 +24659,7 @@
         <f>I6+E7</f>
         <v>897.22222222222229</v>
       </c>
-      <c r="K7" s="128">
+      <c r="K7" s="125">
         <f t="shared" si="0"/>
         <v>408.33330000000001</v>
       </c>
@@ -20654,7 +24698,7 @@
         <v>1305.5555555555557</v>
       </c>
       <c r="J8" s="36"/>
-      <c r="K8" s="128">
+      <c r="K8" s="125">
         <f t="shared" si="0"/>
         <v>408.33330000000001</v>
       </c>
@@ -20685,7 +24729,7 @@
         <f>I8</f>
         <v>1305.5555555555557</v>
       </c>
-      <c r="K9" s="128">
+      <c r="K9" s="125">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -20719,7 +24763,7 @@
         <f>I9</f>
         <v>1305.5555555555557</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="125">
         <f t="shared" si="0"/>
         <v>-194.4444</v>
       </c>
@@ -20753,7 +24797,7 @@
         <f>I10+E11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="125">
         <f t="shared" si="0"/>
         <v>-1305.5555999999999</v>
       </c>
@@ -20791,7 +24835,7 @@
         <f>E12+I11</f>
         <v>291.12654320987656</v>
       </c>
-      <c r="K12" s="128">
+      <c r="K12" s="125">
         <f t="shared" si="0"/>
         <v>291.12650000000002</v>
       </c>
@@ -20825,7 +24869,7 @@
         <v>291.12654320987656</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="128">
+      <c r="K13" s="125">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -20862,7 +24906,7 @@
         <f>E14+I13</f>
         <v>508.52623456790127</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="125">
         <f t="shared" si="0"/>
         <v>217.3997</v>
       </c>
@@ -20899,7 +24943,7 @@
         <f>I14+E15</f>
         <v>1098.6111111111113</v>
       </c>
-      <c r="K15" s="128">
+      <c r="K15" s="125">
         <f t="shared" si="0"/>
         <v>590.08489999999995</v>
       </c>
@@ -20930,7 +24974,7 @@
         <f>I15</f>
         <v>1098.6111111111113</v>
       </c>
-      <c r="K16" s="128">
+      <c r="K16" s="125">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -20965,7 +25009,7 @@
         <v>1098.6111111111113</v>
       </c>
       <c r="J17" s="36"/>
-      <c r="K17" s="128">
+      <c r="K17" s="125">
         <f t="shared" si="0"/>
         <v>-901.38890000000004</v>
       </c>
@@ -21000,7 +25044,7 @@
         <f>I17+E18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="125">
         <f t="shared" si="0"/>
         <v>-1098.6111000000001</v>
       </c>
@@ -21036,7 +25080,7 @@
         <f>I18+E19</f>
         <v>338.87384259259261</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="125">
         <f t="shared" si="0"/>
         <v>338.87380000000002</v>
       </c>
@@ -21069,7 +25113,7 @@
         <f>I4+E20</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="125">
         <f t="shared" si="0"/>
         <v>388.88889999999998</v>
       </c>
@@ -21102,7 +25146,7 @@
         <f>I20</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="K21" s="128">
+      <c r="K21" s="125">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -21136,7 +25180,7 @@
         <f>I21+E22</f>
         <v>693.05555555555566</v>
       </c>
-      <c r="K22" s="128">
+      <c r="K22" s="125">
         <f t="shared" si="0"/>
         <v>204.16669999999999</v>
       </c>
@@ -21169,7 +25213,7 @@
         <f>I22</f>
         <v>693.05555555555566</v>
       </c>
-      <c r="K23" s="128">
+      <c r="K23" s="125">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -21202,7 +25246,7 @@
         <f>I23</f>
         <v>693.05555555555566</v>
       </c>
-      <c r="K24" s="128">
+      <c r="K24" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21236,7 +25280,7 @@
         <f>I23+E25</f>
         <v>293.05555555555566</v>
       </c>
-      <c r="K25" s="128">
+      <c r="K25" s="125">
         <f t="shared" si="0"/>
         <v>-400</v>
       </c>
@@ -21272,7 +25316,7 @@
         <f>I25+E26</f>
         <v>497.22222222222234</v>
       </c>
-      <c r="K26" s="128">
+      <c r="K26" s="125">
         <f t="shared" si="0"/>
         <v>204.16669999999999</v>
       </c>
@@ -21306,7 +25350,7 @@
         <f>I26+E27</f>
         <v>905.55555555555566</v>
       </c>
-      <c r="K27" s="128">
+      <c r="K27" s="125">
         <f t="shared" si="0"/>
         <v>408.33330000000001</v>
       </c>
@@ -21336,7 +25380,7 @@
         <f>I27</f>
         <v>905.55555555555566</v>
       </c>
-      <c r="K28" s="128">
+      <c r="K28" s="125">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -21368,7 +25412,7 @@
         <f>I28</f>
         <v>905.55555555555566</v>
       </c>
-      <c r="K29" s="128">
+      <c r="K29" s="125">
         <f t="shared" si="0"/>
         <v>-594.44439999999997</v>
       </c>
@@ -21400,7 +25444,7 @@
         <f>I29+E30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="128">
+      <c r="K30" s="125">
         <f t="shared" si="0"/>
         <v>-905.55560000000003</v>
       </c>
@@ -21434,7 +25478,7 @@
         <f>I30+E31</f>
         <v>290.01543209876547</v>
       </c>
-      <c r="K31" s="128">
+      <c r="K31" s="125">
         <f t="shared" si="0"/>
         <v>290.0154</v>
       </c>
@@ -21466,7 +25510,7 @@
         <f>I31</f>
         <v>290.01543209876547</v>
       </c>
-      <c r="K32" s="128">
+      <c r="K32" s="125">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -21500,7 +25544,7 @@
         <f>I32+E33</f>
         <v>506.63734567901241</v>
       </c>
-      <c r="K33" s="128">
+      <c r="K33" s="125">
         <f t="shared" si="0"/>
         <v>216.62190000000001</v>
       </c>
@@ -21534,7 +25578,7 @@
         <f>I33+E34</f>
         <v>1094.6111111111113</v>
       </c>
-      <c r="K34" s="128">
+      <c r="K34" s="125">
         <f t="shared" si="0"/>
         <v>587.97379999999998</v>
       </c>
@@ -21564,7 +25608,7 @@
         <f>I34</f>
         <v>1094.6111111111113</v>
       </c>
-      <c r="K35" s="128">
+      <c r="K35" s="125">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -21596,7 +25640,7 @@
         <f>I35</f>
         <v>1094.6111111111113</v>
       </c>
-      <c r="K36" s="128">
+      <c r="K36" s="125">
         <f t="shared" si="0"/>
         <v>-905.38890000000004</v>
       </c>
@@ -21630,7 +25674,7 @@
         <f>I36+E37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="128">
+      <c r="K37" s="125">
         <f t="shared" si="0"/>
         <v>-1094.6111000000001</v>
       </c>
@@ -21664,7 +25708,7 @@
         <f>I37+E38</f>
         <v>337.63939814814819</v>
       </c>
-      <c r="K38" s="128">
+      <c r="K38" s="125">
         <f t="shared" si="0"/>
         <v>337.63940000000002</v>
       </c>
@@ -21699,7 +25743,7 @@
         <f>I38+E39</f>
         <v>1289.1686111111112</v>
       </c>
-      <c r="K39" s="128">
+      <c r="K39" s="125">
         <f t="shared" si="0"/>
         <v>951.52919999999995</v>
       </c>
@@ -21723,7 +25767,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="4"/>
-      <c r="K40" s="128">
+      <c r="K40" s="125">
         <f t="shared" si="0"/>
         <v>-404</v>
       </c>
@@ -21747,7 +25791,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="4"/>
-      <c r="K41" s="128">
+      <c r="K41" s="125">
         <f t="shared" si="0"/>
         <v>-1.2343999999999999</v>
       </c>
@@ -21760,814 +25804,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CC70E-CB82-4754-868F-6D9B4E3FC2C9}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="133"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
-        <v>44712</v>
-      </c>
-      <c r="B6" s="84">
-        <v>44607</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="75">
-        <v>1</v>
-      </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="86">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="85">
-        <v>100000</v>
-      </c>
-      <c r="H6" s="86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
-        <v>44712</v>
-      </c>
-      <c r="B7" s="84">
-        <v>44614</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="75">
-        <v>1</v>
-      </c>
-      <c r="E7" s="85">
-        <v>400</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
-        <v>44712</v>
-      </c>
-      <c r="B8" s="80">
-        <v>44635</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="81">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
-        <v>44712</v>
-      </c>
-      <c r="B9" s="80">
-        <v>44645</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82">
-        <v>7000</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
-        <v>44712</v>
-      </c>
-      <c r="B10" s="80">
-        <v>44671</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="59">
-        <v>1</v>
-      </c>
-      <c r="E10" s="81">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
-        <v>44712</v>
-      </c>
-      <c r="B11" s="80">
-        <v>44712</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="59">
-        <v>1</v>
-      </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="90" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="96">
-        <v>44620</v>
-      </c>
-      <c r="B16" s="96">
-        <v>44607</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="98">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="96">
-        <v>44651</v>
-      </c>
-      <c r="B17" s="97">
-        <v>44635</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="98">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="98"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="96">
-        <v>44651</v>
-      </c>
-      <c r="B18" s="97">
-        <v>44645</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="96">
-        <v>44681</v>
-      </c>
-      <c r="B19" s="97">
-        <v>44671</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="59">
-        <v>1</v>
-      </c>
-      <c r="E19" s="98">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="98"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="99">
-        <v>44712</v>
-      </c>
-      <c r="B20" s="100">
-        <v>44614</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="59">
-        <v>1</v>
-      </c>
-      <c r="E20" s="101">
-        <v>400</v>
-      </c>
-      <c r="F20" s="101"/>
-    </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
-        <v>44620</v>
-      </c>
-      <c r="B25" s="83">
-        <v>44620</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="75">
-        <v>1</v>
-      </c>
-      <c r="E25" s="104">
-        <v>10</v>
-      </c>
-      <c r="F25" s="85">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="79">
-        <v>44651</v>
-      </c>
-      <c r="B26" s="79">
-        <v>44651</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="102">
-        <v>10</v>
-      </c>
-      <c r="F26" s="85">
-        <v>105000</v>
-      </c>
-      <c r="G26" s="85">
-        <v>897.22222222222229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="79">
-        <v>44681</v>
-      </c>
-      <c r="B27" s="79">
-        <v>44681</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="102">
-        <v>10</v>
-      </c>
-      <c r="F27" s="81">
-        <v>111805.55555555556</v>
-      </c>
-      <c r="G27" s="81">
-        <v>508.52623456790127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="103">
-        <v>44712</v>
-      </c>
-      <c r="B28" s="103">
-        <v>44712</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="59">
-        <v>1</v>
-      </c>
-      <c r="E28" s="102">
-        <v>10</v>
-      </c>
-      <c r="F28" s="81">
-        <v>110904.16666666667</v>
-      </c>
-      <c r="G28" s="81">
-        <v>338.87384259259261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B35" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="45">
-        <v>100</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B36" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="45">
-        <v>100000</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="B37" s="6">
-        <v>20220215</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="45">
-        <v>5000</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="B38" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="45">
-        <v>797.22219999999993</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B39" s="6">
-        <v>20220325</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="45">
-        <v>7000</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B40" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="45">
-        <v>-1305.5555999999999</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B41" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="45">
-        <v>-194.4444</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B42" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="45">
-        <v>1500</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B43" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="45">
-        <v>916.85950000000003</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B44" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="45">
-        <v>-1098.6111000000001</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B45" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="45">
-        <v>-901.38890000000004</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B46" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="45">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B47" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="45">
-        <v>928.95869999999991</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="45">
-        <v>-1.2343999999999999</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B49" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="45">
-        <v>-404</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B50" s="6">
-        <v>20220222</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="45">
-        <v>400</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B51" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="45">
-        <v>951.52919999999995</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:H31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C0251-1EE7-4807-B670-C0C4EC35278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22681A31-A59E-4D19-9982-26AD46436BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -1047,6 +1047,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,27 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,16 +1525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="90" t="s">
@@ -1549,22 +1549,22 @@
       <c r="B5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="129" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="130" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1581,8 +1581,8 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="81">
         <v>100000</v>
       </c>
@@ -1929,16 +1929,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="137"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="105" t="s">
@@ -2340,18 +2340,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="H1" s="132" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="139"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
@@ -3063,7 +3063,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,7 +3178,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G24"/>
+      <selection activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,16 +3194,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="53" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -3213,7 +3213,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="133" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -3234,7 +3234,7 @@
       <c r="G5" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="130" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       <c r="A6" s="79">
         <v>44712</v>
       </c>
-      <c r="B6" s="143">
+      <c r="B6" s="134">
         <v>44592</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3251,8 +3251,8 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="81">
         <v>100000</v>
       </c>
@@ -3579,16 +3579,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="130"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="137"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="105" t="s">
@@ -3973,18 +3973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="H1" s="132" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="139"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
@@ -5194,8 +5194,8 @@
   </sheetPr>
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,19 +5226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -5329,24 +5329,24 @@
       <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
@@ -19676,24 +19676,24 @@
       <c r="M30" s="41"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
     </row>
     <row r="32" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
@@ -19784,11 +19784,11 @@
         <v/>
       </c>
       <c r="F33" s="28" t="str">
-        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,5,FALSE)),"")</f>
+        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,5,FALSE)+D27),"")</f>
         <v/>
       </c>
       <c r="G33" s="28" t="str">
-        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,6,FALSE)),"")</f>
+        <f>IFERROR(IF(B33="","",VLOOKUP(B5,EOD!$B$2:$G$15,6,FALSE)+D28),"")</f>
         <v/>
       </c>
       <c r="H33" s="6" t="str">
@@ -20867,14 +20867,14 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="133" t="s">
+      <c r="A48" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
@@ -21078,19 +21078,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
@@ -21349,24 +21349,24 @@
       <c r="Y9" s="53"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
@@ -22240,7 +22240,7 @@
       <c r="X25" s="53"/>
       <c r="Y25" s="53"/>
     </row>
-    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
@@ -22400,24 +22400,24 @@
       <c r="Y30" s="53"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
       <c r="Q31" s="53"/>
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
@@ -23435,14 +23435,14 @@
       <c r="Y47" s="53"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="133" t="s">
+      <c r="A48" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
@@ -24229,7 +24229,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24429,18 +24429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="H1" s="132" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="139"/>
       <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
